--- a/utilities/Excel_Sheets/Products/Retailer_Access.xlsx
+++ b/utilities/Excel_Sheets/Products/Retailer_Access.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regressions!$A$1:$N$94</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$K$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$K$9</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="360">
   <si>
     <t>State</t>
   </si>
@@ -1107,6 +1107,9 @@
   </si>
   <si>
     <t>Cardigan General Insurance Services-TigranSmith</t>
+  </si>
+  <si>
+    <t>create_CALIFORNIA_Preferred_Wholesaler_Account_Not_USI_or_HUB</t>
   </si>
 </sst>
 </file>
@@ -1524,10 +1527,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD3"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1541,7 +1544,7 @@
     <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="47" style="1" customWidth="1"/>
+    <col min="13" max="13" width="49.140625" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1588,7 +1591,7 @@
     </row>
     <row r="2" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1630,19 +1633,19 @@
     <row r="3" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>356</v>
+        <v>252</v>
       </c>
       <c r="B4" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>244</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>357</v>
@@ -1672,10 +1675,10 @@
     <row r="5" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>251</v>
+        <v>356</v>
       </c>
       <c r="B6" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>304</v>
@@ -1684,7 +1687,7 @@
         <v>244</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>357</v>
@@ -1711,49 +1714,63 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" s="8" t="s">
+    <row r="7" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="G8" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K8" s="7">
         <v>94203</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+      <c r="M8" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
     <row r="10" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>355</v>
@@ -3852,9 +3869,9 @@
     <hyperlink ref="D12" r:id="rId1" xr:uid="{37199EAD-7296-4928-B108-79869D1BF363}"/>
     <hyperlink ref="D13:D61" r:id="rId2" display="qa-test@nasinsurance.com" xr:uid="{1DF2E76D-0354-4087-A539-4FC724B3449D}"/>
     <hyperlink ref="D10" r:id="rId3" xr:uid="{4ADD08EB-5642-4910-8B42-ADFAD8A4CC75}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{903AE395-B968-4839-BBE3-EF06E250D858}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{B187E44F-C6FB-4FE1-8336-407FBF58869F}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{81E09452-1623-47CA-888B-FC0A63956A36}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{903AE395-B968-4839-BBE3-EF06E250D858}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{B187E44F-C6FB-4FE1-8336-407FBF58869F}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{81E09452-1623-47CA-888B-FC0A63956A36}"/>
     <hyperlink ref="D2" r:id="rId7" xr:uid="{33451410-90B1-4D06-9367-A1A5239544B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/utilities/Excel_Sheets/Products/Retailer_Access.xlsx
+++ b/utilities/Excel_Sheets/Products/Retailer_Access.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvillarruel\PycharmProjects\NASOnline_TestFramework\utilities\Excel_Sheets\Products\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" tabRatio="200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" tabRatio="200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Regression" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regression!$A$1:$K$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regression!$A$1:$K$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$K$9</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -1146,12 +1146,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1254,19 +1255,19 @@
     <row r="3" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="B4" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>119</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>232</v>
@@ -1296,10 +1297,10 @@
     <row r="5" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>231</v>
+        <v>126</v>
       </c>
       <c r="B6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>179</v>
@@ -1308,7 +1309,7 @@
         <v>119</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>232</v>
@@ -1338,13 +1339,13 @@
     <row r="7" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>119</v>
@@ -1377,21 +1378,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
+    <row r="9" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>230</v>
@@ -3490,9 +3477,9 @@
     <hyperlink ref="D12" r:id="rId1" xr:uid="{37199EAD-7296-4928-B108-79869D1BF363}"/>
     <hyperlink ref="D13:D61" r:id="rId2" display="qa-test@nasinsurance.com" xr:uid="{1DF2E76D-0354-4087-A539-4FC724B3449D}"/>
     <hyperlink ref="D10" r:id="rId3" xr:uid="{4ADD08EB-5642-4910-8B42-ADFAD8A4CC75}"/>
-    <hyperlink ref="D8" r:id="rId4" xr:uid="{903AE395-B968-4839-BBE3-EF06E250D858}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{B187E44F-C6FB-4FE1-8336-407FBF58869F}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{81E09452-1623-47CA-888B-FC0A63956A36}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{903AE395-B968-4839-BBE3-EF06E250D858}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{B187E44F-C6FB-4FE1-8336-407FBF58869F}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{81E09452-1623-47CA-888B-FC0A63956A36}"/>
     <hyperlink ref="D2" r:id="rId7" xr:uid="{33451410-90B1-4D06-9367-A1A5239544B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3502,12 +3489,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190D6D91-8B95-4593-87B9-57D60B2E0F9E}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3568,19 +3556,19 @@
     </row>
     <row r="2" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="B2" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>119</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>232</v>
@@ -3652,10 +3640,10 @@
     <row r="5" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>231</v>
+        <v>126</v>
       </c>
       <c r="B6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>179</v>
@@ -3664,7 +3652,7 @@
         <v>119</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>232</v>
@@ -3691,13 +3679,27 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
     <row r="8" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="B8" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>179</v>
@@ -3706,7 +3708,7 @@
         <v>119</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>232</v>
@@ -3750,19 +3752,19 @@
     </row>
     <row r="10" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="B10" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>119</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>232</v>
@@ -5845,10 +5847,10 @@
   <hyperlinks>
     <hyperlink ref="D12" r:id="rId1" xr:uid="{60A1E3FA-6A34-48B2-910E-429CD358EC4E}"/>
     <hyperlink ref="D13:D61" r:id="rId2" display="qa-test@nasinsurance.com" xr:uid="{32975305-1B49-4DD8-8891-D32A42837BE5}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{79A26DA2-68E1-4B60-9B2B-04CDBDE52626}"/>
-    <hyperlink ref="D8" r:id="rId4" xr:uid="{19D89E75-79E4-4D6E-B65E-1E95F1B55D87}"/>
-    <hyperlink ref="D2" r:id="rId5" xr:uid="{81FB7118-9977-4AB9-995B-9856BE7B8BFB}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{E541AAB8-E639-48D3-BD73-8BB97AA71297}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{79A26DA2-68E1-4B60-9B2B-04CDBDE52626}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{19D89E75-79E4-4D6E-B65E-1E95F1B55D87}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{81FB7118-9977-4AB9-995B-9856BE7B8BFB}"/>
+    <hyperlink ref="D2" r:id="rId6" xr:uid="{E541AAB8-E639-48D3-BD73-8BB97AA71297}"/>
     <hyperlink ref="D4" r:id="rId7" xr:uid="{3C5A7577-A3FF-4489-A5DD-9A030F4FC4CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
